--- a/project_documentation/Project Plan.xlsx
+++ b/project_documentation/Project Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Activity/Project Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="549" documentId="8_{3D9E990D-42BB-4965-B5A7-55023470F3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBA31E81-1660-4FEA-932D-0B4EB2F02E38}"/>
+  <xr:revisionPtr revIDLastSave="613" documentId="8_{3D9E990D-42BB-4965-B5A7-55023470F3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBC1F593-09D5-48EC-97A8-CE9D76B1FD8F}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9420" xr2:uid="{A0D60A9C-849A-413F-B8A2-E7AF0635A98B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A0D60A9C-849A-413F-B8A2-E7AF0635A98B}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>Documentation</t>
   </si>
@@ -143,15 +143,6 @@
     <t>Data Cleanup and Transformation</t>
   </si>
   <si>
-    <t>Text Table - Bills and Measures</t>
-  </si>
-  <si>
-    <t>Text Table - Votes and Quorum Calls</t>
-  </si>
-  <si>
-    <t>Text Table - Nominations</t>
-  </si>
-  <si>
     <t>Chart - Working Days</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
     <t>Chart - Partisan Membership</t>
   </si>
   <si>
-    <t>Text Table - Laws and Vetoes</t>
-  </si>
-  <si>
     <t>Chart - Laws and Vetoes</t>
   </si>
   <si>
@@ -188,9 +176,6 @@
     <t>4.1.10</t>
   </si>
   <si>
-    <t>4.1.11</t>
-  </si>
-  <si>
     <t>Dashboard</t>
   </si>
   <si>
@@ -264,6 +249,15 @@
   </si>
   <si>
     <t>All data acquired from public government web sites</t>
+  </si>
+  <si>
+    <t>Why are there different # of laws passed by chamber?</t>
+  </si>
+  <si>
+    <t>Text Table - Partisan Makeup</t>
+  </si>
+  <si>
+    <t>Updated 2023-07-17</t>
   </si>
 </sst>
 </file>
@@ -274,7 +268,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +294,14 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -339,7 +341,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -378,6 +380,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
@@ -422,8 +425,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2802A86D-61F4-4146-B1D7-891849B2A1D7}" name="Table1" displayName="Table1" ref="A1:H56" totalsRowShown="0">
-  <autoFilter ref="A1:H56" xr:uid="{2802A86D-61F4-4146-B1D7-891849B2A1D7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2802A86D-61F4-4146-B1D7-891849B2A1D7}" name="Table1" displayName="Table1" ref="A1:H52" totalsRowShown="0">
+  <autoFilter ref="A1:H52" xr:uid="{2802A86D-61F4-4146-B1D7-891849B2A1D7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{0D570795-BB3B-4053-A1A3-D6EC4C1A5662}" name="ID" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{9EA4DA84-5393-4665-80E5-6B611C7DB64D}" name="Task" dataDxfId="3"/>
@@ -735,11 +738,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06375DBE-983F-47C3-A81F-FD157782BA19}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,6 +886,9 @@
       <c r="G6" s="8">
         <v>45117</v>
       </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -907,7 +913,7 @@
         <v>45117</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -934,7 +940,9 @@
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
@@ -942,6 +950,9 @@
         <v>45089</v>
       </c>
       <c r="F10" s="8">
+        <v>45117</v>
+      </c>
+      <c r="G10" s="8">
         <v>45117</v>
       </c>
     </row>
@@ -952,12 +963,20 @@
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="8">
         <v>45089</v>
+      </c>
+      <c r="F11" s="8">
+        <v>45117</v>
+      </c>
+      <c r="G11" s="8">
+        <v>45117</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -969,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="15"/>
@@ -977,7 +996,7 @@
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -985,19 +1004,22 @@
         <v>0.1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C14" s="10"/>
       <c r="E14" s="8">
         <v>45090</v>
       </c>
+      <c r="H14" s="18" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>0.2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C15" s="10"/>
       <c r="E15" s="8">
@@ -1009,7 +1031,7 @@
         <v>0.3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C16" s="10"/>
       <c r="E16" s="8">
@@ -1021,7 +1043,7 @@
         <v>0.4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C17" s="10"/>
       <c r="E17" s="8">
@@ -1033,7 +1055,7 @@
         <v>0.6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C18" s="10"/>
       <c r="E18" s="8">
@@ -1065,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E21" s="8">
         <v>45090</v>
@@ -1160,13 +1182,13 @@
         <v>21</v>
       </c>
       <c r="E27" s="8">
-        <v>45091</v>
+        <v>45128</v>
       </c>
       <c r="F27" s="8">
-        <v>45113</v>
+        <v>45124</v>
       </c>
       <c r="G27" s="8">
-        <v>45113</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1174,7 +1196,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C28" s="10">
         <v>1</v>
@@ -1183,13 +1205,13 @@
         <v>21</v>
       </c>
       <c r="E28" s="8">
-        <v>45091</v>
+        <v>45128</v>
       </c>
       <c r="F28" s="8">
         <v>45113</v>
       </c>
       <c r="G28" s="8">
-        <v>45113</v>
+        <v>45124</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1197,384 +1219,354 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="10"/>
+        <v>68</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
       <c r="D29" t="s">
         <v>21</v>
       </c>
+      <c r="E29" s="8">
+        <v>45128</v>
+      </c>
+      <c r="F29" s="8">
+        <v>45113</v>
+      </c>
+      <c r="G29" s="8">
+        <v>45124</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-      <c r="C30" s="10"/>
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="8">
+        <v>45128</v>
+      </c>
+      <c r="F30" s="8">
+        <v>45124</v>
+      </c>
+      <c r="G30" s="8">
+        <v>45124</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E31" s="8">
-        <v>45091</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" s="8">
-        <v>45091</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E33" s="8">
-        <v>45091</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E34" s="8">
-        <v>45091</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="8">
-        <v>45092</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="8">
-        <v>45092</v>
+        <v>45128</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>43</v>
+      <c r="A37" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E37" s="8">
-        <v>45092</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>39</v>
+      <c r="A38" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E38" s="8">
-        <v>45093</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>44</v>
+      <c r="A39" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39" s="8">
-        <v>45093</v>
+        <v>45135</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
-      <c r="E40" s="8">
-        <v>45093</v>
-      </c>
+      <c r="B40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="8">
-        <v>45094</v>
-      </c>
+      <c r="A41" s="4">
+        <v>5</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>4.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="8">
+        <v>45142</v>
+      </c>
+      <c r="H42" t="s">
         <v>53</v>
-      </c>
-      <c r="E42" s="8">
-        <v>45095</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E43" s="8">
-        <v>45096</v>
+        <v>45142</v>
+      </c>
+      <c r="H43" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>5</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="5"/>
+      <c r="A44" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="8">
+        <v>45142</v>
+      </c>
+      <c r="H44" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="8">
-        <v>45097</v>
-      </c>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
+      <c r="A46" s="4">
+        <v>6</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47" s="10"/>
-      <c r="D47" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="8">
-        <v>45097</v>
-      </c>
-      <c r="H47" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>57</v>
+      <c r="A48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E48" s="8">
-        <v>45098</v>
-      </c>
-      <c r="H48" t="s">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="8">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="8">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>6</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>59</v>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C51" s="10"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>1</v>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="8">
+        <v>45149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" t="s">
         <v>21</v>
       </c>
       <c r="E52" s="8">
-        <v>45099</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="8">
-        <v>45099</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="10"/>
-      <c r="D54" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="8">
-        <v>45099</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="8">
-        <v>45099</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="8">
-        <v>45099</v>
+        <v>45149</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="C3:C7 C26:C43 C51:C56 C10:C18">
+  <conditionalFormatting sqref="C3:C7 C47:C52 C10:C18 C26:C39">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1602,7 +1594,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C48">
+  <conditionalFormatting sqref="C42:C44">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1639,7 +1631,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C3:C7 C26:C43 C51:C56 C10:C18</xm:sqref>
+          <xm:sqref>C3:C7 C47:C52 C10:C18 C26:C39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CF875DB4-25B8-4F18-89EE-E86FD7939D33}">
@@ -1673,7 +1665,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C46:C48</xm:sqref>
+          <xm:sqref>C42:C44</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
